--- a/data/trans_orig/P1434-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Edad-trans_orig.xlsx
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5305</v>
+        <v>4981</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001340282564131627</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007212945868050973</v>
+        <v>0.006772438938851673</v>
       </c>
     </row>
     <row r="8">
@@ -728,7 +728,7 @@
         <v>734503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>730184</v>
+        <v>730508</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -737,7 +737,7 @@
         <v>0.9986597174358683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.992787054131949</v>
+        <v>0.9932275610611483</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5532</v>
+        <v>5248</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001698091231367418</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00866144597271922</v>
+        <v>0.008217773870216183</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +819,7 @@
         <v>637583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>633136</v>
+        <v>633420</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>638668</v>
@@ -828,7 +828,7 @@
         <v>0.9983019087686326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9913385540272801</v>
+        <v>0.9917822261297844</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -881,19 +881,19 @@
         <v>4273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11709</v>
+        <v>10761</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008230174445782477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001778319694779612</v>
+        <v>0.00175289096347604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02255501216356548</v>
+        <v>0.0207287651405341</v>
       </c>
     </row>
     <row r="14">
@@ -910,19 +910,19 @@
         <v>514874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>507438</v>
+        <v>508386</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>518224</v>
+        <v>518237</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9917698255542176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9774449878364345</v>
+        <v>0.9792712348594659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982216803052204</v>
+        <v>0.9982471090365239</v>
       </c>
     </row>
     <row r="15">
@@ -972,19 +972,19 @@
         <v>19715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12767</v>
+        <v>12393</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29147</v>
+        <v>29228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05098216201782138</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03301480541594107</v>
+        <v>0.03204683702957285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07537085328761299</v>
+        <v>0.07558240865876675</v>
       </c>
     </row>
     <row r="17">
@@ -1001,19 +1001,19 @@
         <v>366995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>357563</v>
+        <v>357482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>373943</v>
+        <v>374317</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9490178379821786</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9246291467123869</v>
+        <v>0.9244175913412332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9669851945840587</v>
+        <v>0.9679531629704271</v>
       </c>
     </row>
     <row r="18">
@@ -1063,19 +1063,19 @@
         <v>37259</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26647</v>
+        <v>26393</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50039</v>
+        <v>49400</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1273437370667924</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09107384213606416</v>
+        <v>0.09020726813690447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1710252503439199</v>
+        <v>0.1688398534333557</v>
       </c>
     </row>
     <row r="20">
@@ -1092,19 +1092,19 @@
         <v>255324</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>242544</v>
+        <v>243183</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265936</v>
+        <v>266190</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8726562629332075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8289747496560801</v>
+        <v>0.8311601465666444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9089261578639358</v>
+        <v>0.9097927318630956</v>
       </c>
     </row>
     <row r="21">
@@ -1154,19 +1154,19 @@
         <v>42871</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32096</v>
+        <v>32207</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54488</v>
+        <v>54828</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2042598156131819</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.152923080258213</v>
+        <v>0.1534531507687631</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2596126080406573</v>
+        <v>0.2612291419392189</v>
       </c>
     </row>
     <row r="23">
@@ -1183,19 +1183,19 @@
         <v>167012</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>155395</v>
+        <v>155055</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>177787</v>
+        <v>177676</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7957401843868182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7403873919593426</v>
+        <v>0.7387708580607815</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8470769197417869</v>
+        <v>0.846546849231237</v>
       </c>
     </row>
     <row r="24">
@@ -1245,19 +1245,19 @@
         <v>106188</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87844</v>
+        <v>88342</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126888</v>
+        <v>127426</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03240840611078726</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02680995041772366</v>
+        <v>0.02696188368531471</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03872607797091985</v>
+        <v>0.03889034669298826</v>
       </c>
     </row>
     <row r="26">
@@ -1274,19 +1274,19 @@
         <v>3170355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3149655</v>
+        <v>3149117</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3188699</v>
+        <v>3188201</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9675915938892128</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.96127392202908</v>
+        <v>0.9611096533070123</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9731900495822763</v>
+        <v>0.9730381163146854</v>
       </c>
     </row>
     <row r="27">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10792</v>
+        <v>11173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003182241639459963</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01582745030046884</v>
+        <v>0.0163856743232681</v>
       </c>
     </row>
     <row r="11">
@@ -1636,7 +1636,7 @@
         <v>679693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>671071</v>
+        <v>670690</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>681863</v>
@@ -1645,7 +1645,7 @@
         <v>0.99681775836054</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9841725496995312</v>
+        <v>0.9836143256767326</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1773,19 +1773,19 @@
         <v>21775</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12776</v>
+        <v>13950</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31733</v>
+        <v>32589</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05070601522022279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02975144052207017</v>
+        <v>0.03248470065387102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07389477424223116</v>
+        <v>0.07588921903422688</v>
       </c>
     </row>
     <row r="17">
@@ -1802,19 +1802,19 @@
         <v>407654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>397696</v>
+        <v>396840</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>416653</v>
+        <v>415479</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9492939847797772</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9261052257577694</v>
+        <v>0.9241107809657735</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9702485594779301</v>
+        <v>0.9675152993461291</v>
       </c>
     </row>
     <row r="18">
@@ -1864,19 +1864,19 @@
         <v>55844</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41642</v>
+        <v>41352</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71613</v>
+        <v>70594</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1802676104708711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1344206540436809</v>
+        <v>0.1334842088022146</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2311694737590348</v>
+        <v>0.2278786040413516</v>
       </c>
     </row>
     <row r="20">
@@ -1893,19 +1893,19 @@
         <v>253942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238173</v>
+        <v>239192</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268144</v>
+        <v>268434</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.819732389529129</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7688305262409652</v>
+        <v>0.7721213959586483</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8655793459563191</v>
+        <v>0.8665157911977853</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>44620</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33256</v>
+        <v>32096</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57763</v>
+        <v>59105</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1801671029899432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1342802646783477</v>
+        <v>0.1295981984132404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2332375075806051</v>
+        <v>0.238652854173722</v>
       </c>
     </row>
     <row r="23">
@@ -1984,19 +1984,19 @@
         <v>203039</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>189896</v>
+        <v>188554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>214403</v>
+        <v>215563</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8198328970100568</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7667624924193949</v>
+        <v>0.7613471458262778</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8657197353216524</v>
+        <v>0.8704018015867596</v>
       </c>
     </row>
     <row r="24">
@@ -2046,19 +2046,19 @@
         <v>124409</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>102543</v>
+        <v>103271</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>148333</v>
+        <v>151843</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03632816513965646</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02994319383103293</v>
+        <v>0.03015574836783993</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04331399572559431</v>
+        <v>0.04433911553896724</v>
       </c>
     </row>
     <row r="26">
@@ -2075,19 +2075,19 @@
         <v>3300178</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3276254</v>
+        <v>3272744</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3322044</v>
+        <v>3321316</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9636718348603436</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9566860042744058</v>
+        <v>0.9556608844610328</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9700568061689671</v>
+        <v>0.96984425163216</v>
       </c>
     </row>
     <row r="27">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6594</v>
+        <v>6165</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002943905123301837</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009855492571137256</v>
+        <v>0.009214272493783067</v>
       </c>
     </row>
     <row r="11">
@@ -2437,7 +2437,7 @@
         <v>667127</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>662503</v>
+        <v>662932</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -2446,7 +2446,7 @@
         <v>0.9970560948766982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9901445074288635</v>
+        <v>0.990785727506217</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2499,19 +2499,19 @@
         <v>4401</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11139</v>
+        <v>10487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006812170272405548</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002207214438209323</v>
+        <v>0.002211537128764369</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01724135718148738</v>
+        <v>0.01623290452936611</v>
       </c>
     </row>
     <row r="14">
@@ -2528,19 +2528,19 @@
         <v>641647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>634909</v>
+        <v>635561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>644622</v>
+        <v>644619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9931878297275945</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9827586428185126</v>
+        <v>0.9837670954706348</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9977927855617906</v>
+        <v>0.9977884628712357</v>
       </c>
     </row>
     <row r="15">
@@ -2590,19 +2590,19 @@
         <v>12781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7087</v>
+        <v>7210</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20813</v>
+        <v>21745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02674375480387352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01482965858350594</v>
+        <v>0.01508585134322736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04355002184159357</v>
+        <v>0.04549881867116679</v>
       </c>
     </row>
     <row r="17">
@@ -2619,19 +2619,19 @@
         <v>465137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>457105</v>
+        <v>456173</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>470831</v>
+        <v>470708</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9732562451961265</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9564499781584064</v>
+        <v>0.9545011813288332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9851703414164941</v>
+        <v>0.9849141486567726</v>
       </c>
     </row>
     <row r="18">
@@ -2681,19 +2681,19 @@
         <v>42713</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31094</v>
+        <v>31317</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55935</v>
+        <v>56473</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1277555638324434</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09300295675334769</v>
+        <v>0.09367033278226175</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1673040329128525</v>
+        <v>0.1689143531501579</v>
       </c>
     </row>
     <row r="20">
@@ -2710,19 +2710,19 @@
         <v>291617</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>278395</v>
+        <v>277857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>303236</v>
+        <v>303013</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8722444361675565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8326959670871475</v>
+        <v>0.8310856468498421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9069970432466523</v>
+        <v>0.9063296672177382</v>
       </c>
     </row>
     <row r="21">
@@ -2772,19 +2772,19 @@
         <v>47138</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36845</v>
+        <v>37270</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59144</v>
+        <v>59328</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.183417018023955</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.143367624375989</v>
+        <v>0.1450223944369729</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2301330265301016</v>
+        <v>0.2308506957511659</v>
       </c>
     </row>
     <row r="23">
@@ -2801,19 +2801,19 @@
         <v>209860</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>197854</v>
+        <v>197670</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220153</v>
+        <v>219728</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8165829819760451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7698669734698984</v>
+        <v>0.7691493042488341</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8566323756240111</v>
+        <v>0.8549776055630272</v>
       </c>
     </row>
     <row r="24">
@@ -2863,19 +2863,19 @@
         <v>109002</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91378</v>
+        <v>90215</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>130713</v>
+        <v>129963</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0321128885917014</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02692065483006062</v>
+        <v>0.02657793845890024</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03850902931254336</v>
+        <v>0.03828818205783788</v>
       </c>
     </row>
     <row r="26">
@@ -2892,19 +2892,19 @@
         <v>3285348</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3263637</v>
+        <v>3264387</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3302972</v>
+        <v>3304135</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9678871114082986</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9614909706874567</v>
+        <v>0.9617118179421621</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9730793451699394</v>
+        <v>0.9734220615410997</v>
       </c>
     </row>
     <row r="27">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7414</v>
+        <v>6829</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002192652915387474</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01199170021759881</v>
+        <v>0.01104559457939218</v>
       </c>
     </row>
     <row r="11">
@@ -3254,7 +3254,7 @@
         <v>616872</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610814</v>
+        <v>611399</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>618228</v>
@@ -3263,7 +3263,7 @@
         <v>0.9978073470846127</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9880082997824013</v>
+        <v>0.9889544054206078</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3316,19 +3316,19 @@
         <v>10289</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5133</v>
+        <v>5178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20119</v>
+        <v>18627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01482025334706376</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007394181499378862</v>
+        <v>0.00745839850144916</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02898118239144443</v>
+        <v>0.0268320691800102</v>
       </c>
     </row>
     <row r="14">
@@ -3345,19 +3345,19 @@
         <v>683934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>674104</v>
+        <v>675596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>689090</v>
+        <v>689045</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9851797466529363</v>
+        <v>0.9851797466529364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9710188176085558</v>
+        <v>0.9731679308199895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9926058185006212</v>
+        <v>0.9925416014985509</v>
       </c>
     </row>
     <row r="15">
@@ -3407,19 +3407,19 @@
         <v>27615</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19098</v>
+        <v>18921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38720</v>
+        <v>37545</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04557181330576755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03151726892691789</v>
+        <v>0.03122416884355934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06389858338903698</v>
+        <v>0.06195833144494061</v>
       </c>
     </row>
     <row r="17">
@@ -3436,19 +3436,19 @@
         <v>578350</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>567245</v>
+        <v>568420</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>586867</v>
+        <v>587044</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9544281866942327</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9361014166109627</v>
+        <v>0.9380416685550593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9684827310730819</v>
+        <v>0.9687758311564406</v>
       </c>
     </row>
     <row r="18">
@@ -3498,19 +3498,19 @@
         <v>65202</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53300</v>
+        <v>53993</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79288</v>
+        <v>77534</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1608557750455149</v>
+        <v>0.1608557750455148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1314940423191755</v>
+        <v>0.1332025398214629</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1956058789754378</v>
+        <v>0.191279778531782</v>
       </c>
     </row>
     <row r="20">
@@ -3527,19 +3527,19 @@
         <v>340142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>326056</v>
+        <v>327810</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>352044</v>
+        <v>351351</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8391442249544853</v>
+        <v>0.8391442249544852</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8043941210245621</v>
+        <v>0.8087202214682178</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8685059576808245</v>
+        <v>0.866797460178537</v>
       </c>
     </row>
     <row r="21">
@@ -3589,19 +3589,19 @@
         <v>88615</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76684</v>
+        <v>76386</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103871</v>
+        <v>102751</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2864914250749834</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2479188240573857</v>
+        <v>0.2469553905004104</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3358118722110057</v>
+        <v>0.3321913070266949</v>
       </c>
     </row>
     <row r="23">
@@ -3618,19 +3618,19 @@
         <v>220697</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205441</v>
+        <v>206561</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>232628</v>
+        <v>232926</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7135085749250166</v>
+        <v>0.7135085749250165</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6641881277889943</v>
+        <v>0.6678086929733055</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7520811759426143</v>
+        <v>0.7530446094995895</v>
       </c>
     </row>
     <row r="24">
@@ -3680,19 +3680,19 @@
         <v>193076</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>170878</v>
+        <v>170695</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>217407</v>
+        <v>216101</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05497201421889269</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04865183142197058</v>
+        <v>0.04859966704110641</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06189953766040319</v>
+        <v>0.06152756183689279</v>
       </c>
     </row>
     <row r="26">
@@ -3709,19 +3709,19 @@
         <v>3319184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3294853</v>
+        <v>3296159</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3341382</v>
+        <v>3341565</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9450279857811074</v>
+        <v>0.9450279857811072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9381004623395968</v>
+        <v>0.9384724381631072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9513481685780295</v>
+        <v>0.9514003329588936</v>
       </c>
     </row>
     <row r="27">
